--- a/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H2">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J2">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N2">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P2">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q2">
-        <v>296.108028237334</v>
+        <v>422.8084987091205</v>
       </c>
       <c r="R2">
-        <v>296.108028237334</v>
+        <v>3805.276488382085</v>
       </c>
       <c r="S2">
-        <v>0.005305073188338204</v>
+        <v>0.006361959756891799</v>
       </c>
       <c r="T2">
-        <v>0.005305073188338204</v>
+        <v>0.006361959756891799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H3">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J3">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N3">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P3">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q3">
-        <v>165.4790921998713</v>
+        <v>225.7366818985805</v>
       </c>
       <c r="R3">
-        <v>165.4790921998713</v>
+        <v>2031.630137087225</v>
       </c>
       <c r="S3">
-        <v>0.002964724396315432</v>
+        <v>0.003396638644392689</v>
       </c>
       <c r="T3">
-        <v>0.002964724396315432</v>
+        <v>0.003396638644392689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H4">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J4">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N4">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P4">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q4">
-        <v>371.5890870841076</v>
+        <v>507.8049650697421</v>
       </c>
       <c r="R4">
-        <v>371.5890870841076</v>
+        <v>4570.244685627679</v>
       </c>
       <c r="S4">
-        <v>0.00665739228586178</v>
+        <v>0.007640893600736547</v>
       </c>
       <c r="T4">
-        <v>0.00665739228586178</v>
+        <v>0.007640893600736547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H5">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I5">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J5">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N5">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P5">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q5">
-        <v>207.9512565590437</v>
+        <v>312.0954356804232</v>
       </c>
       <c r="R5">
-        <v>207.9512565590437</v>
+        <v>2808.85892112381</v>
       </c>
       <c r="S5">
-        <v>0.00372565594462166</v>
+        <v>0.004696070699076596</v>
       </c>
       <c r="T5">
-        <v>0.00372565594462166</v>
+        <v>0.004696070699076597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.05211101684487</v>
+        <v>4.153678333333333</v>
       </c>
       <c r="H6">
-        <v>3.05211101684487</v>
+        <v>12.461035</v>
       </c>
       <c r="I6">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="J6">
-        <v>0.01912548034354614</v>
+        <v>0.02267710693885585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N6">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P6">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q6">
-        <v>26.38057446440783</v>
+        <v>38.64875847935555</v>
       </c>
       <c r="R6">
-        <v>26.38057446440783</v>
+        <v>347.8388263141999</v>
       </c>
       <c r="S6">
-        <v>0.0004726345284090617</v>
+        <v>0.0005815442377582149</v>
       </c>
       <c r="T6">
-        <v>0.0004726345284090617</v>
+        <v>0.0005815442377582149</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H7">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J7">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N7">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P7">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q7">
-        <v>12648.31228009198</v>
+        <v>14310.75142592139</v>
       </c>
       <c r="R7">
-        <v>12648.31228009198</v>
+        <v>128796.7628332925</v>
       </c>
       <c r="S7">
-        <v>0.2266072377512953</v>
+        <v>0.2153325321997125</v>
       </c>
       <c r="T7">
-        <v>0.2266072377512953</v>
+        <v>0.2153325321997125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H8">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I8">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J8">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N8">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P8">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q8">
-        <v>7068.471754816849</v>
+        <v>7640.483935932741</v>
       </c>
       <c r="R8">
-        <v>7068.471754816849</v>
+        <v>68764.35542339468</v>
       </c>
       <c r="S8">
-        <v>0.1266387818399475</v>
+        <v>0.1149656439546252</v>
       </c>
       <c r="T8">
-        <v>0.1266387818399475</v>
+        <v>0.1149656439546252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H9">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I9">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J9">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N9">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P9">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q9">
-        <v>15872.50045630983</v>
+        <v>17187.61720766947</v>
       </c>
       <c r="R9">
-        <v>15872.50045630983</v>
+        <v>154688.5548690252</v>
       </c>
       <c r="S9">
-        <v>0.2843718122197081</v>
+        <v>0.2586204613339183</v>
       </c>
       <c r="T9">
-        <v>0.2843718122197081</v>
+        <v>0.2586204613339183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H10">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I10">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J10">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N10">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P10">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q10">
-        <v>8882.678553680242</v>
+        <v>10563.45890591917</v>
       </c>
       <c r="R10">
-        <v>8882.678553680242</v>
+        <v>95071.13015327256</v>
       </c>
       <c r="S10">
-        <v>0.1591421215975475</v>
+        <v>0.1589473737122597</v>
       </c>
       <c r="T10">
-        <v>0.1591421215975475</v>
+        <v>0.1589473737122597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>130.371518409563</v>
+        <v>140.5890806666667</v>
       </c>
       <c r="H11">
-        <v>130.371518409563</v>
+        <v>421.767242</v>
       </c>
       <c r="I11">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="J11">
-        <v>0.8169486296333808</v>
+        <v>0.7675494732291734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N11">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P11">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q11">
-        <v>1126.851392514797</v>
+        <v>1308.140156139671</v>
       </c>
       <c r="R11">
-        <v>1126.851392514797</v>
+        <v>11773.26140525704</v>
       </c>
       <c r="S11">
-        <v>0.02018867622488222</v>
+        <v>0.0196834620286577</v>
       </c>
       <c r="T11">
-        <v>0.02018867622488222</v>
+        <v>0.0196834620286577</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H12">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I12">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J12">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N12">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P12">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q12">
-        <v>652.6311562650438</v>
+        <v>725.0570265018356</v>
       </c>
       <c r="R12">
-        <v>652.6311562650438</v>
+        <v>6525.513238516521</v>
       </c>
       <c r="S12">
-        <v>0.01169254366247985</v>
+        <v>0.01090986495810664</v>
       </c>
       <c r="T12">
-        <v>0.01169254366247985</v>
+        <v>0.01090986495810664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H13">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I13">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J13">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N13">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P13">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q13">
-        <v>364.7209834970469</v>
+        <v>387.1066164693556</v>
       </c>
       <c r="R13">
-        <v>364.7209834970469</v>
+        <v>3483.9595482242</v>
       </c>
       <c r="S13">
-        <v>0.006534343301302532</v>
+        <v>0.005824756889049411</v>
       </c>
       <c r="T13">
-        <v>0.006534343301302532</v>
+        <v>0.005824756889049411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H14">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I14">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J14">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N14">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P14">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q14">
-        <v>818.9937199703285</v>
+        <v>870.8139953204623</v>
       </c>
       <c r="R14">
-        <v>818.9937199703285</v>
+        <v>7837.32595788416</v>
       </c>
       <c r="S14">
-        <v>0.01467309633952083</v>
+        <v>0.01310305637394095</v>
       </c>
       <c r="T14">
-        <v>0.01467309633952083</v>
+        <v>0.01310305637394095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H15">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I15">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J15">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N15">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P15">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q15">
-        <v>458.3309335541552</v>
+        <v>535.1997163494134</v>
       </c>
       <c r="R15">
-        <v>458.3309335541552</v>
+        <v>4816.797447144721</v>
       </c>
       <c r="S15">
-        <v>0.008211459721164025</v>
+        <v>0.008053099849483762</v>
       </c>
       <c r="T15">
-        <v>0.008211459721164025</v>
+        <v>0.008053099849483762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.7269460873118</v>
+        <v>7.122973333333334</v>
       </c>
       <c r="H16">
-        <v>6.7269460873118</v>
+        <v>21.36892</v>
       </c>
       <c r="I16">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="J16">
-        <v>0.04215314398949194</v>
+        <v>0.03888804453304686</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N16">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P16">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q16">
-        <v>58.14359346529815</v>
+        <v>66.27717746115556</v>
       </c>
       <c r="R16">
-        <v>58.14359346529815</v>
+        <v>596.4945971504001</v>
       </c>
       <c r="S16">
-        <v>0.001041700965024692</v>
+        <v>0.0009972664624661016</v>
       </c>
       <c r="T16">
-        <v>0.001041700965024692</v>
+        <v>0.0009972664624661013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H17">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I17">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J17">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N17">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P17">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q17">
-        <v>1851.315808749711</v>
+        <v>3146.718084105737</v>
       </c>
       <c r="R17">
-        <v>1851.315808749711</v>
+        <v>28320.46275695163</v>
       </c>
       <c r="S17">
-        <v>0.03316818499859387</v>
+        <v>0.04734837137494965</v>
       </c>
       <c r="T17">
-        <v>0.03316818499859387</v>
+        <v>0.04734837137494965</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H18">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I18">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J18">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N18">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P18">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q18">
-        <v>1034.602341688711</v>
+        <v>1680.027013044913</v>
       </c>
       <c r="R18">
-        <v>1034.602341688711</v>
+        <v>15120.24311740421</v>
       </c>
       <c r="S18">
-        <v>0.01853594168370705</v>
+        <v>0.02527920862545403</v>
       </c>
       <c r="T18">
-        <v>0.01853594168370705</v>
+        <v>0.02527920862545403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H19">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I19">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J19">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N19">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P19">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q19">
-        <v>2323.235730462191</v>
+        <v>3779.297416353401</v>
       </c>
       <c r="R19">
-        <v>2323.235730462191</v>
+        <v>34013.67674718061</v>
       </c>
       <c r="S19">
-        <v>0.0416231051121171</v>
+        <v>0.05686673315596443</v>
       </c>
       <c r="T19">
-        <v>0.0416231051121171</v>
+        <v>0.05686673315596443</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H20">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I20">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J20">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N20">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P20">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q20">
-        <v>1300.145257826498</v>
+        <v>2322.745059337337</v>
       </c>
       <c r="R20">
-        <v>1300.145257826498</v>
+        <v>20904.70553403604</v>
       </c>
       <c r="S20">
-        <v>0.02329341014257168</v>
+        <v>0.03495012668416031</v>
       </c>
       <c r="T20">
-        <v>0.02329341014257168</v>
+        <v>0.03495012668416032</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.0822971237213</v>
+        <v>30.91341533333334</v>
       </c>
       <c r="H21">
-        <v>19.0822971237213</v>
+        <v>92.74024600000001</v>
       </c>
       <c r="I21">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="J21">
-        <v>0.1195756302884144</v>
+        <v>0.1687725358349285</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N21">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P21">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q21">
-        <v>164.9356650023427</v>
+        <v>287.6402617415022</v>
       </c>
       <c r="R21">
-        <v>164.9356650023427</v>
+        <v>2588.76235567352</v>
       </c>
       <c r="S21">
-        <v>0.002954988351424708</v>
+        <v>0.004328095994400092</v>
       </c>
       <c r="T21">
-        <v>0.002954988351424708</v>
+        <v>0.004328095994400091</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H22">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I22">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J22">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>97.0174500871979</v>
+        <v>101.7913436666667</v>
       </c>
       <c r="N22">
-        <v>97.0174500871979</v>
+        <v>305.374031</v>
       </c>
       <c r="O22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="P22">
-        <v>0.2773824810171835</v>
+        <v>0.2805454758424659</v>
       </c>
       <c r="Q22">
-        <v>34.01658935745674</v>
+        <v>39.39331785989578</v>
       </c>
       <c r="R22">
-        <v>34.01658935745674</v>
+        <v>354.539860739062</v>
       </c>
       <c r="S22">
-        <v>0.0006094414164762641</v>
+        <v>0.0005927475528052761</v>
       </c>
       <c r="T22">
-        <v>0.0006094414164762641</v>
+        <v>0.0005927475528052761</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H23">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I23">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J23">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>54.2179138591544</v>
+        <v>54.34621166666667</v>
       </c>
       <c r="N23">
-        <v>54.2179138591544</v>
+        <v>163.038635</v>
       </c>
       <c r="O23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="P23">
-        <v>0.1550143757469534</v>
+        <v>0.1497827149446808</v>
       </c>
       <c r="Q23">
-        <v>19.01006994006933</v>
+        <v>21.03202014580778</v>
       </c>
       <c r="R23">
-        <v>19.01006994006933</v>
+        <v>189.28818131227</v>
       </c>
       <c r="S23">
-        <v>0.0003405845256808221</v>
+        <v>0.0003164668311594663</v>
       </c>
       <c r="T23">
-        <v>0.0003405845256808221</v>
+        <v>0.0003164668311594663</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H24">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I24">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J24">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.748221160133</v>
+        <v>122.2542826666667</v>
       </c>
       <c r="N24">
-        <v>121.748221160133</v>
+        <v>366.762848</v>
       </c>
       <c r="O24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="P24">
-        <v>0.3480902004172829</v>
+        <v>0.3369430510399163</v>
       </c>
       <c r="Q24">
-        <v>42.68777668844919</v>
+        <v>47.31248889485511</v>
       </c>
       <c r="R24">
-        <v>42.68777668844919</v>
+        <v>425.812400053696</v>
       </c>
       <c r="S24">
-        <v>0.000764794460075053</v>
+        <v>0.0007119065753560867</v>
       </c>
       <c r="T24">
-        <v>0.000764794460075053</v>
+        <v>0.0007119065753560867</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H25">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I25">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J25">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13358210476039</v>
+        <v>75.13712199999999</v>
       </c>
       <c r="N25">
-        <v>68.13358210476039</v>
+        <v>225.411366</v>
       </c>
       <c r="O25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291165</v>
       </c>
       <c r="P25">
-        <v>0.1948006469745413</v>
+        <v>0.2070842066291166</v>
       </c>
       <c r="Q25">
-        <v>23.8892290183581</v>
+        <v>29.07811630541467</v>
       </c>
       <c r="R25">
-        <v>23.8892290183581</v>
+        <v>261.703046748732</v>
       </c>
       <c r="S25">
-        <v>0.0004279995686364293</v>
+        <v>0.0004375356841361353</v>
       </c>
       <c r="T25">
-        <v>0.0004279995686364293</v>
+        <v>0.0004375356841361354</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.350623411838624</v>
+        <v>0.3870006666666667</v>
       </c>
       <c r="H26">
-        <v>0.350623411838624</v>
+        <v>1.161002</v>
       </c>
       <c r="I26">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="J26">
-        <v>0.002197115745166725</v>
+        <v>0.002112839463995207</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.643386272259139</v>
+        <v>9.304706666666666</v>
       </c>
       <c r="N26">
-        <v>8.643386272259139</v>
+        <v>27.91412</v>
       </c>
       <c r="O26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="P26">
-        <v>0.02471229584403883</v>
+        <v>0.02564455154382035</v>
       </c>
       <c r="Q26">
-        <v>3.030573584618625</v>
+        <v>3.600927683137778</v>
       </c>
       <c r="R26">
-        <v>3.030573584618625</v>
+        <v>32.40834914824</v>
       </c>
       <c r="S26">
-        <v>5.429577429815593E-05</v>
+        <v>5.418282053824287E-05</v>
       </c>
       <c r="T26">
-        <v>5.429577429815593E-05</v>
+        <v>5.418282053824286E-05</v>
       </c>
     </row>
   </sheetData>
